--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2085957.629181062</v>
+        <v>2194599.790483874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9689752.974026972</v>
+        <v>9695246.620015388</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>129.135770429405</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>18.57854233281228</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -835,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0.8836825045857112</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>22.07544028472187</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>253.1477574274537</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4.294059952734734</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>103.3387326418228</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,13 +1113,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>59.90979066819698</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>205.6635790502717</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.6499314317633</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>165.8717126489661</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>143.571083574097</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1427,13 +1429,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>35.99871774582724</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>111.5512144998717</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1686991936193</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>134.1343006978453</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>60.25690685266579</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>124.6209519256076</v>
       </c>
       <c r="H31" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>66.09841665934323</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>239.7247859410132</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,10 +3319,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3667,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>243.1373908222617</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>159.4039304881677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>18.7084378797738</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99.97427419833345</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892489</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>20.92847288552853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>137.9385224935183</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1378.810406950777</v>
+        <v>1237.219941498974</v>
       </c>
       <c r="C2" t="n">
-        <v>1378.810406950777</v>
+        <v>1237.219941498974</v>
       </c>
       <c r="D2" t="n">
-        <v>1378.810406950777</v>
+        <v>1237.219941498974</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>851.43168890073</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>440.4457841111225</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4328,10 +4330,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4361,19 +4363,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>1768.949738926589</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X2" t="n">
-        <v>1768.949738926589</v>
+        <v>1627.359273474786</v>
       </c>
       <c r="Y2" t="n">
-        <v>1378.810406950777</v>
+        <v>1237.219941498974</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287797</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2047.363946463959</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P3" t="n">
-        <v>2294.546680296256</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>834.8075278248619</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>665.8713448969551</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>515.7547054846193</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>515.7547054846193</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>368.8647579867089</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>200.8782932949875</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>52.13939515849373</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4515,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544054</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W4" t="n">
-        <v>793.1323075070932</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X4" t="n">
-        <v>770.8338829770711</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y4" t="n">
-        <v>770.8338829770711</v>
+        <v>1016.455992655102</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.907945722349</v>
+        <v>1217.629781995562</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>848.6672650551507</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>848.6672650551507</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X5" t="n">
-        <v>1878.507785786471</v>
+        <v>1604.229622059684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.507785786471</v>
+        <v>1604.229622059684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.6293447920665</v>
+        <v>1401.098245668325</v>
       </c>
       <c r="C7" t="n">
-        <v>155.6293447920665</v>
+        <v>1401.098245668325</v>
       </c>
       <c r="D7" t="n">
-        <v>155.6293447920665</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="E7" t="n">
-        <v>155.6293447920665</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="F7" t="n">
-        <v>155.6293447920665</v>
+        <v>1250.981606255989</v>
       </c>
       <c r="G7" t="n">
-        <v>155.6293447920665</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H7" t="n">
-        <v>155.6293447920665</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>1751.030355774172</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>1690.515415705286</v>
       </c>
       <c r="W7" t="n">
-        <v>383.6188956900839</v>
+        <v>1401.098245668325</v>
       </c>
       <c r="X7" t="n">
-        <v>155.6293447920665</v>
+        <v>1401.098245668325</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.6293447920665</v>
+        <v>1401.098245668325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1336.407536033268</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>967.445019092856</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>759.7040301531875</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176918</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176918</v>
+        <v>1726.546868009079</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>1336.407536033268</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>774.7644039315074</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C10" t="n">
-        <v>774.7644039315074</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1478.231022178942</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1478.231022178942</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="V10" t="n">
-        <v>1223.546533973055</v>
+        <v>1185.132884028472</v>
       </c>
       <c r="W10" t="n">
-        <v>1223.546533973055</v>
+        <v>895.7157139915109</v>
       </c>
       <c r="X10" t="n">
-        <v>995.5569830750376</v>
+        <v>750.694417452019</v>
       </c>
       <c r="Y10" t="n">
-        <v>774.7644039315074</v>
+        <v>529.9018383084889</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,31 +5056,31 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5106,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913852</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.167399417937</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5297,28 +5299,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5343,34 +5345,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5580,37 +5582,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,22 +5831,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6071,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2061.573352863481</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1772.498126207679</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6464,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>2359.115042518991</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>2359.115042518991</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>2854.44064873475</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>484.8243144841095</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>980.1499206998682</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>3267.591475357737</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>3098.65529242983</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>2948.538653017494</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>2800.625559435101</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2653.735611937191</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2486.539512652071</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>3449.239940187977</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.62928111327</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>3314.305816915985</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>868.6673633290469</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>699.73118040114</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7362,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1050.315828159287</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>1050.315828159287</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,16 +7499,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400664</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121596</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998238</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998238</v>
+        <v>2438.670847218162</v>
       </c>
       <c r="F43" t="n">
-        <v>194.8007783998238</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="G43" t="n">
-        <v>194.8007783998238</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854701</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648814</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611854</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138363</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703062</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7721,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756265</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756265</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438179</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1091.10905366816</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>922.1728707402528</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>772.0562313279171</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>624.143137745524</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797183</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7843,13 +7845,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1272.757518498399</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>224.3355197601775</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.0169020165191</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>73.66059580999774</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883066534</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>114.3555089013342</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012476</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>216.1389255780008</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>114.1584408891654</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>43.2652634529499</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>83.27114962944296</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>40.9031863666612</v>
       </c>
       <c r="H31" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>74.19629618688066</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>46.45968844823096</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>40.30478226780143</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.04708356698248</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>66.30572490086948</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431574</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>40.32043864789044</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.482525529412982</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>847667.253761014</v>
+        <v>853609.1812620847</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323795</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516051</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516049</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752549</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752549</v>
-      </c>
       <c r="J2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752548</v>
@@ -26344,7 +26346,7 @@
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752545</v>
@@ -26353,7 +26355,7 @@
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805861</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707393</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707331</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707392</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
@@ -26442,22 +26444,22 @@
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707454</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744343.9996957845</v>
+        <v>-744343.9996957839</v>
       </c>
       <c r="C6" t="n">
-        <v>370407.7838801355</v>
+        <v>370407.7838801352</v>
       </c>
       <c r="D6" t="n">
-        <v>208609.7428818156</v>
+        <v>370407.7838801353</v>
       </c>
       <c r="E6" t="n">
-        <v>151748.8686472848</v>
+        <v>-30324.111169906</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.3304546397</v>
+        <v>477161.3304546398</v>
       </c>
       <c r="G6" t="n">
         <v>477161.3304546399</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.3304546399</v>
+        <v>477161.3304546405</v>
       </c>
       <c r="I6" t="n">
-        <v>477161.3304546404</v>
+        <v>477161.3304546398</v>
       </c>
       <c r="J6" t="n">
-        <v>309556.1526446575</v>
+        <v>309556.1526446578</v>
       </c>
       <c r="K6" t="n">
         <v>477161.3304546403</v>
       </c>
       <c r="L6" t="n">
-        <v>428867.3604464491</v>
+        <v>477161.3304546398</v>
       </c>
       <c r="M6" t="n">
-        <v>392106.3025191287</v>
+        <v>344554.0367257133</v>
       </c>
       <c r="N6" t="n">
-        <v>477161.3304546401</v>
+        <v>477161.33045464</v>
       </c>
       <c r="O6" t="n">
-        <v>477161.33045464</v>
+        <v>477161.3304546399</v>
       </c>
       <c r="P6" t="n">
-        <v>477161.33045464</v>
+        <v>477161.3304546398</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>252.7945996428568</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>392.9691604401417</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>103.9129126993149</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>203.6342151043153</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>112.1251343435539</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>377.636310119527</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>1.457862562077779</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>192.227852655631</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>149.0194625704112</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>144.5880072242903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>53.67723662720306</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>82.13857181494018</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>671.2522281007821</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32551,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>248.5245325067415</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32789,25 +32791,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33262,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173734</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,7 +33271,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33436,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33740,13 +33742,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33977,13 +33979,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>300.7687781170415</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33995,7 +33997,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>583.1096135868581</v>
+        <v>324.5433647340733</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,19 +34786,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="O3" t="n">
-        <v>335.4246819961231</v>
-      </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>474.0150488837098</v>
       </c>
       <c r="Q3" t="n">
-        <v>270.4976243473736</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
@@ -35024,19 +35026,19 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>464.8576954028716</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844296</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>481.2868411833748</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>528.6559836563376</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,13 +36199,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>114.5501250924112</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36373,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37625,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>169.4270660337082</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37643,7 +37645,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N42" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>440.9755796648398</v>
+        <v>182.409330812055</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2194599.790483874</v>
+        <v>2190462.633233723</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>18.57854233281228</v>
+        <v>385.5156796261414</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -837,7 +837,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8836825045857112</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.294059952734734</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>222.2293158041245</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>59.90979066819698</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.8586974472229</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>205.6635790502717</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>161.2587707647387</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>31.10811072719313</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>143.571083574097</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>35.99871774582724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428617</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.600826611595375</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>42.71572132711285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>74.20064764874441</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>134.1343006978453</v>
+        <v>206.5509998577715</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>60.25690685266579</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.6209519256076</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>66.09841665934323</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>26.07046444232026</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>243.1373908222617</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>18.7084378797738</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>46.15319674220954</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>137.9385224935183</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1237.219941498974</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="C2" t="n">
-        <v>1237.219941498974</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="D2" t="n">
-        <v>1237.219941498974</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="E2" t="n">
-        <v>851.43168890073</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="F2" t="n">
-        <v>440.4457841111225</v>
+        <v>507.0302131322575</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735866</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.359273474786</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1237.219941498974</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>834.8075278248619</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>665.8713448969551</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>515.7547054846193</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>515.7547054846193</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>368.8647579867089</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>200.8782932949875</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>52.13939515849373</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1244.445543553119</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1016.455992655102</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>1016.455992655102</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1217.629781995562</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C5" t="n">
-        <v>848.6672650551507</v>
+        <v>757.7992423756284</v>
       </c>
       <c r="D5" t="n">
-        <v>848.6672650551507</v>
+        <v>757.7992423756284</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>757.7992423756284</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.695380320764</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1604.229622059684</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y5" t="n">
-        <v>1604.229622059684</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4652,22 +4652,22 @@
         <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M6" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1401.098245668325</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C7" t="n">
-        <v>1401.098245668325</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D7" t="n">
-        <v>1250.981606255989</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E7" t="n">
-        <v>1250.981606255989</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F7" t="n">
-        <v>1250.981606255989</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>1082.995141564268</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>2040.148693270334</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1751.030355774172</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1690.515415705286</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1401.098245668325</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X7" t="n">
-        <v>1401.098245668325</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y7" t="n">
-        <v>1401.098245668325</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.407536033268</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C8" t="n">
-        <v>967.445019092856</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531875</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4807,13 +4807,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2100.012626270159</v>
+        <v>2399.451681163045</v>
       </c>
       <c r="X8" t="n">
-        <v>1726.546868009079</v>
+        <v>2025.985922901965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1336.407536033268</v>
+        <v>1635.846590926153</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1456.147065963532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>348.2533734782492</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>250.6555853275964</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>82.66912063587495</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4962,16 +4962,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1185.132884028472</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>895.7157139915109</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>750.694417452019</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.9018383084889</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="11">
@@ -5032,34 +5032,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121689</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270488</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5539,25 +5539,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576786</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597682</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5712,13 +5712,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,28 +5764,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192512</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232838</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2061.573352863481</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U25" t="n">
-        <v>1772.498126207679</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.813638001792</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.396467964831</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232838</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6314,19 +6314,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>449.4852666057155</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>301.5721730233224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>154.6822255254121</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6420,16 +6420,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2359.115042518991</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2359.115042518991</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>443.4949469776659</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3267.591475357737</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>3098.65529242983</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>2948.538653017494</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>2800.625559435101</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2653.735611937191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2486.539512652071</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>4221.331149328841</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3966.646661122954</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.229491085994</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.239940187977</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3449.239940187977</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7119,22 +7119,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2420.62928111327</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2237.774446768175</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2018.172981791116</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1729.097755135313</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135313</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
         <v>1501.108204237296</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2716.927329289434</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3314.305816915985</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2757.723669558405</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C43" t="n">
-        <v>2588.787486630498</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D43" t="n">
-        <v>2438.670847218162</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E43" t="n">
-        <v>2438.670847218162</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F43" t="n">
-        <v>2419.773435218391</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G43" t="n">
-        <v>2419.773435218391</v>
+        <v>282.1478848544703</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>140.4360536966684</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>922.1728707402528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>772.0562313279171</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>624.143137745524</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601775</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>73.66059580999774</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>114.3555089013342</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>280.1079373569281</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>216.1389255780008</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392193769</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>211.9838267404994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>122.808416965156</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>211.9838267404998</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>83.27114962944296</v>
+        <v>10.85445046951673</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>105.2672314396031</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>40.9031863666612</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>74.19629618688066</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>40.30478226780143</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>126.7126101431574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>7.482525529412982</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323795</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
   </sheetData>
@@ -26316,31 +26316,31 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26349,13 +26349,13 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="P4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-744343.9996957839</v>
       </c>
       <c r="C6" t="n">
-        <v>370407.7838801352</v>
+        <v>370407.7838801353</v>
       </c>
       <c r="D6" t="n">
-        <v>370407.7838801353</v>
+        <v>370407.7838801356</v>
       </c>
       <c r="E6" t="n">
-        <v>-30324.111169906</v>
+        <v>-30671.49042426305</v>
       </c>
       <c r="F6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.951200283</v>
       </c>
       <c r="G6" t="n">
-        <v>477161.3304546399</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="H6" t="n">
-        <v>477161.3304546405</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="I6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="J6" t="n">
-        <v>309556.1526446578</v>
+        <v>309208.7733903006</v>
       </c>
       <c r="K6" t="n">
-        <v>477161.3304546403</v>
+        <v>476813.951200283</v>
       </c>
       <c r="L6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.9512002828</v>
       </c>
       <c r="M6" t="n">
-        <v>344554.0367257133</v>
+        <v>344206.6574713563</v>
       </c>
       <c r="N6" t="n">
-        <v>477161.33045464</v>
+        <v>476813.9512002833</v>
       </c>
       <c r="O6" t="n">
-        <v>477161.3304546399</v>
+        <v>476813.9512002831</v>
       </c>
       <c r="P6" t="n">
-        <v>477161.3304546398</v>
+        <v>476813.951200283</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175392</v>
       </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
-      </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>392.9691604401417</v>
+        <v>26.03202314681261</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>103.9129126993149</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>377.636310119527</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>184.646729937587</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>192.227852655631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>80.85095794181422</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149.0194625704112</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>187.9821979526743</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>116.1433984279357</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,7 +28061,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,13 +28070,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>82.13857181494018</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>255.6522884173734</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33438,7 +33438,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>137.7376326175077</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>300.7687781170415</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>324.5433647340733</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,16 +34786,16 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>546.4575832202785</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837098</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>464.8576954028716</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113673</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>481.2868411833748</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>615.5326193530511</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35275,7 +35275,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>79.32561221529411</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.4543240367771</v>
@@ -35670,7 +35670,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066292</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35907,7 +35907,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>128.8146617507067</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>6.395920534174421</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>169.4270660337082</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>182.409330812055</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2190462.633233723</v>
+        <v>2192223.163536508</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>385.5156796261414</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>39.67788952565739</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>144.8586974472232</v>
+        <v>144.8586974472229</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>222.2293158041245</v>
+        <v>222.2293158041254</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8586974472229</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>297.5859636118086</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>161.2587707647387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428617</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>206.5509998577715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>107.503453282975</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>98.03921036659287</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>46.15319674220954</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>78.6882778203391</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="E2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="F2" t="n">
-        <v>507.0302131322575</v>
+        <v>507.0302131322571</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>91.32546285654593</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362814</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816078</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4403,22 +4403,22 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057869</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
         <v>1343.569531118698</v>
@@ -4482,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1126.76175931604</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C5" t="n">
-        <v>757.7992423756284</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="D5" t="n">
-        <v>757.7992423756284</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="E5" t="n">
-        <v>757.7992423756284</v>
+        <v>757.7992423756293</v>
       </c>
       <c r="F5" t="n">
         <v>533.3251860078259</v>
@@ -4564,13 +4564,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1126.76175931604</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y5" t="n">
-        <v>1126.76175931604</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.20497511435</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4722,19 +4722,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.246750862032</v>
+        <v>805.7846820932073</v>
       </c>
       <c r="C8" t="n">
-        <v>880.2842339216199</v>
+        <v>436.8221651527955</v>
       </c>
       <c r="D8" t="n">
-        <v>522.0185353148695</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E8" t="n">
         <v>136.2302827166252</v>
@@ -4804,13 +4804,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.451681163045</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X8" t="n">
-        <v>2025.985922901965</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y8" t="n">
-        <v>1635.846590926153</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300791</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,22 +5290,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400758</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121689</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270488</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611863</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703155</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,31 +5527,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192512</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>284.4927131505381</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2165.078743814364</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1876.003517158562</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1621.319028952675</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1331.901858915714</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1103.912308017697</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
     <row r="38">
@@ -7168,34 +7168,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>282.1478848544703</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4360536966684</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
   </sheetData>
@@ -8072,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>211.0329012241554</v>
+        <v>211.0329012241557</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780645</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
-        <v>280.1079373569281</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392193769</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>10.85445046951673</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>35.112639576356</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>66.73277020259215</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323799</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>833424.7043323797</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323796</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>833424.7043323799</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>833424.7043323796</v>
+        <v>833424.7043323797</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099823</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="C4" t="n">
         <v>131909.7268316249</v>
-      </c>
-      <c r="C4" t="n">
-        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744343.9996957839</v>
+        <v>-744343.9996957841</v>
       </c>
       <c r="C6" t="n">
         <v>370407.7838801353</v>
@@ -26530,40 +26530,40 @@
         <v>370407.7838801356</v>
       </c>
       <c r="E6" t="n">
-        <v>-30671.49042426305</v>
+        <v>-30358.84909534146</v>
       </c>
       <c r="F6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="G6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292042</v>
       </c>
       <c r="H6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="I6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="J6" t="n">
-        <v>309208.7733903006</v>
+        <v>309521.4147192218</v>
       </c>
       <c r="K6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="L6" t="n">
-        <v>476813.9512002828</v>
+        <v>477126.5925292044</v>
       </c>
       <c r="M6" t="n">
-        <v>344206.6574713563</v>
+        <v>344519.2988002776</v>
       </c>
       <c r="N6" t="n">
-        <v>476813.9512002833</v>
+        <v>477126.5925292043</v>
       </c>
       <c r="O6" t="n">
-        <v>476813.9512002831</v>
+        <v>477126.5925292041</v>
       </c>
       <c r="P6" t="n">
-        <v>476813.951200283</v>
+        <v>477126.592529204</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175392</v>
@@ -26792,7 +26792,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26801,16 +26801,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>26.03202314681261</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.0320231468131</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>80.85095794181399</v>
+        <v>80.85095794181422</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>184.646729937587</v>
+        <v>184.6467299375861</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>80.85095794181422</v>
+        <v>80.85095794181399</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>57.0970780088744</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,13 +27909,13 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>187.9821979526743</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34698,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225033</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34786,13 +34786,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>546.4575832202785</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P3" t="n">
         <v>568.1422977634695</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215493</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35266,16 +35266,16 @@
         <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>615.5326193530511</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902408</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066292</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902408</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
